--- a/server/uploads/spreadsheets/fakedata4.xlsx
+++ b/server/uploads/spreadsheets/fakedata4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\Programming2022\headstarter-resume-parser-group-project\server\uploads\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E6A5C8-F849-4506-87B5-779D82E4F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5F3513-4E9D-4A19-A116-136A462C9ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="1320" windowWidth="21600" windowHeight="12570" xr2:uid="{C55EF693-AA48-4A2D-B4E2-31CDD1B28224}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C55EF693-AA48-4A2D-B4E2-31CDD1B28224}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
     <t>skills</t>
   </si>
   <si>
@@ -55,26 +49,34 @@
     <t>contact</t>
   </si>
   <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Huff</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
-    <t>dhuff0@thetimes.co.uk</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Maynard James Keenan</t>
+  </si>
+  <si>
+    <t>puscifertool@thetimes.co.uk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,13 +99,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,35 +424,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC13B9E6-FE66-4A07-BAFC-0A07CD6BAE3C}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
+    <col min="5" max="5" width="85" customWidth="1"/>
+    <col min="6" max="6" width="59.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,19 +464,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E1906303-CF9F-40ED-B3CF-048A6BDCBBC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>